--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -49,565 +49,565 @@
     <t>thin</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
     <t>bottom</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>disappointment</t>
+    <t>frustrating</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>inches</t>
+    <t>instead</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>noise</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>glue</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>otherwise</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>lasted</t>
+    <t>bad</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>might</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>maybe</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>expensive</t>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>light</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>parts</t>
+    <t>look</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>stick</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>doll</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>worked</t>
+    <t>pieces</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
     <t>need</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>think</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>toy</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
-    <t>4</t>
+    <t>still</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>came</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>time</t>
   </si>
   <si>
     <t>got</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>set</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>grandson</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoys</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>learning</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>played</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>gift</t>
   </si>
   <si>
     <t>positive</t>
@@ -968,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q134"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +976,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
         <v>198</v>
@@ -1058,16 +1058,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K3">
-        <v>0.9285714285714286</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1108,16 +1108,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1137,13 +1137,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K5">
-        <v>0.8923076923076924</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1187,49 +1187,49 @@
         <v>11</v>
       </c>
       <c r="B6">
+        <v>0.8169014084507042</v>
+      </c>
+      <c r="C6">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6">
         <v>0.85</v>
       </c>
-      <c r="C6">
+      <c r="L6">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K6">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L6">
-        <v>23</v>
-      </c>
-      <c r="M6">
-        <v>23</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1237,13 +1237,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8148148148148148</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K7">
         <v>0.8279569892473119</v>
@@ -1287,13 +1287,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8095238095238095</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8">
         <v>0.7916666666666666</v>
@@ -1337,49 +1337,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7619047619047619</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9">
+        <v>0.75</v>
+      </c>
+      <c r="L9">
+        <v>48</v>
+      </c>
+      <c r="M9">
+        <v>48</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>16</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9">
-        <v>0.71875</v>
-      </c>
-      <c r="L9">
-        <v>46</v>
-      </c>
-      <c r="M9">
-        <v>46</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1387,13 +1387,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7526881720430108</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C10">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1405,31 +1405,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L10">
+        <v>37</v>
+      </c>
+      <c r="M10">
+        <v>37</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>16</v>
-      </c>
-      <c r="M10">
-        <v>16</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1437,13 +1437,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7464788732394366</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11">
-        <v>0.6415094339622641</v>
+        <v>0.6355810616929699</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>443</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>443</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1487,13 +1487,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.734375</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C12">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K12">
-        <v>0.6398852223816356</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="L12">
-        <v>446</v>
+        <v>43</v>
       </c>
       <c r="M12">
-        <v>446</v>
+        <v>43</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>251</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1537,13 +1537,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6824324324324325</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1555,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13">
-        <v>0.5809128630705395</v>
+        <v>0.58298755186722</v>
       </c>
       <c r="L13">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M13">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1587,7 +1587,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6818181818181818</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -1605,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K14">
-        <v>0.5652173913043478</v>
+        <v>0.5295566502463054</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>645</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>647</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1637,38 +1637,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6818181818181818</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C15">
+        <v>138</v>
+      </c>
+      <c r="D15">
+        <v>138</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>48</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15">
-        <v>0.541871921182266</v>
-      </c>
-      <c r="L15">
-        <v>660</v>
-      </c>
-      <c r="M15">
-        <v>662</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>558</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1687,13 +1687,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6727272727272727</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1705,31 +1705,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16">
-        <v>0.4606060606060606</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="L16">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1737,13 +1737,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6650485436893204</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C17">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1755,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17">
-        <v>0.4444444444444444</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L17">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M17">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1787,13 +1787,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6578947368421053</v>
+        <v>0.72</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1805,19 +1805,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K18">
-        <v>0.4342507645259939</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="L18">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="M18">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>185</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1837,13 +1837,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6521739130434783</v>
+        <v>0.71875</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K19">
         <v>0.425531914893617</v>
@@ -1887,13 +1887,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.64</v>
+        <v>0.6941747572815534</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1905,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K20">
-        <v>0.3962264150943396</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1937,13 +1937,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6386554621848739</v>
+        <v>0.6824324324324325</v>
       </c>
       <c r="C21">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D21">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1955,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K21">
-        <v>0.375</v>
+        <v>0.3975535168195719</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>75</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1987,13 +1987,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22">
-        <v>0.3728813559322034</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2037,13 +2037,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6285714285714286</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K23">
-        <v>0.3243243243243243</v>
+        <v>0.359375</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2087,38 +2087,38 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C24">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="L24">
         <v>21</v>
       </c>
-      <c r="D24">
+      <c r="M24">
         <v>21</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>14</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24">
-        <v>0.3203125</v>
-      </c>
-      <c r="L24">
-        <v>41</v>
-      </c>
-      <c r="M24">
-        <v>41</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2137,13 +2137,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5925925925925926</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2155,31 +2155,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K25">
-        <v>0.2950819672131147</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2187,13 +2187,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5925925925925926</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K26">
-        <v>0.2909090909090909</v>
+        <v>0.34</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2237,13 +2237,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5806451612903226</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2255,31 +2255,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K27">
-        <v>0.2763157894736842</v>
+        <v>0.32</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2287,13 +2287,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5789473684210527</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2305,31 +2305,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K28">
-        <v>0.2758620689655172</v>
+        <v>0.3125</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2337,37 +2337,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5784883720930233</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C29">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="E29">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K29">
-        <v>0.2741935483870968</v>
+        <v>0.2822580645161291</v>
       </c>
       <c r="L29">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M29">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N29">
         <v>0.99</v>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2387,13 +2387,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5714285714285714</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K30">
-        <v>0.2657342657342657</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>105</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2458,28 +2458,28 @@
         <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K31">
-        <v>0.2532865907099036</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="L31">
-        <v>289</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>852</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2487,13 +2487,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5208333333333334</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2505,19 +2505,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K32">
-        <v>0.2528735632183908</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2537,13 +2537,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5111111111111111</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2555,31 +2555,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K33">
-        <v>0.248</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>94</v>
+        <v>871</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2587,13 +2587,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5060240963855421</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2605,31 +2605,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K34">
-        <v>0.246031746031746</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2637,13 +2637,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4960629921259843</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C35">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2655,19 +2655,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K35">
-        <v>0.234375</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2687,13 +2687,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4947368421052631</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C36">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D36">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K36">
-        <v>0.1956521739130435</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2737,13 +2737,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4881516587677725</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C37">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K37">
-        <v>0.1818181818181818</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2787,13 +2787,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4693877551020408</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2805,31 +2805,31 @@
         <v>0</v>
       </c>
       <c r="H38">
+        <v>25</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K38">
+        <v>0.2</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
         <v>26</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K38">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="L38">
-        <v>21</v>
-      </c>
-      <c r="M38">
-        <v>21</v>
-      </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2837,13 +2837,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4583333333333333</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2855,19 +2855,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K39">
-        <v>0.1711229946524064</v>
+        <v>0.1838440111420613</v>
       </c>
       <c r="L39">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M39">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2887,13 +2887,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4545454545454545</v>
+        <v>0.4881516587677725</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2905,31 +2905,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K40">
-        <v>0.1708683473389356</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L40">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>296</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2937,13 +2937,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4545454545454545</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2955,31 +2955,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K41">
-        <v>0.1553524804177546</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L41">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1294</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2987,13 +2987,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4523809523809524</v>
+        <v>0.46875</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3005,31 +3005,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K42">
-        <v>0.152317880794702</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="L42">
         <v>23</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3037,49 +3037,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4473684210526316</v>
+        <v>0.453125</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E43">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K43">
-        <v>0.1367521367521368</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>101</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3087,13 +3087,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4473684210526316</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3105,31 +3105,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K44">
-        <v>0.1346153846153846</v>
+        <v>0.1486310299869622</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="N44">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0.1899999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>135</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3137,13 +3137,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4418604651162791</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3158,28 +3158,28 @@
         <v>24</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K45">
-        <v>0.125</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>224</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3187,13 +3187,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4296875</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C46">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3205,31 +3205,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K46">
-        <v>0.1044776119402985</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N46">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="O46">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3237,13 +3237,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4262295081967213</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3255,31 +3255,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K47">
-        <v>0.096875</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N47">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="O47">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>289</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3287,13 +3287,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.421875</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3305,31 +3305,31 @@
         <v>0</v>
       </c>
       <c r="H48">
+        <v>22</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48">
+        <v>0.1152647975077882</v>
+      </c>
+      <c r="L48">
         <v>37</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K48">
-        <v>0.09274193548387097</v>
-      </c>
-      <c r="L48">
-        <v>69</v>
-      </c>
       <c r="M48">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N48">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>675</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3337,13 +3337,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4166666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3355,31 +3355,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K49">
-        <v>0.09139784946236559</v>
+        <v>0.1137254901960784</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N49">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O49">
-        <v>0.26</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>169</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3387,13 +3387,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4157303370786517</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C50">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3405,31 +3405,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="K50">
-        <v>0.08465608465608465</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="L50">
+        <v>30</v>
+      </c>
+      <c r="M50">
         <v>32</v>
       </c>
-      <c r="M50">
-        <v>50</v>
-      </c>
       <c r="N50">
-        <v>0.64</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0.36</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3437,13 +3437,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4146341463414634</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C51">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3455,31 +3455,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>188</v>
       </c>
       <c r="K51">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N51">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="O51">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3487,13 +3487,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4126984126984127</v>
+        <v>0.4029850746268657</v>
       </c>
       <c r="C52">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3505,31 +3505,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K52">
-        <v>0.07780979827089338</v>
+        <v>0.08993288590604027</v>
       </c>
       <c r="L52">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="M52">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="N52">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="O52">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>640</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3537,49 +3537,49 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4032258064516129</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>190</v>
       </c>
       <c r="K53">
-        <v>0.07741935483870968</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N53">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="O53">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3587,13 +3587,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.396551724137931</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C54">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3605,31 +3605,31 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>191</v>
       </c>
       <c r="K54">
-        <v>0.07529411764705882</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N54">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="O54">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>393</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3637,13 +3637,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3888888888888889</v>
+        <v>0.3861386138613861</v>
       </c>
       <c r="C55">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D55">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3655,31 +3655,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="K55">
-        <v>0.07291666666666667</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N55">
-        <v>0.91</v>
+        <v>0.53</v>
       </c>
       <c r="O55">
-        <v>0.08999999999999997</v>
+        <v>0.47</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3687,13 +3687,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3712871287128713</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C56">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3705,31 +3705,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K56">
-        <v>0.06837606837606838</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N56">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="O56">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>218</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3737,7 +3737,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3650793650793651</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="C57">
         <v>23</v>
@@ -3755,31 +3755,31 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K57">
-        <v>0.06797853309481217</v>
+        <v>0.05605786618444846</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N57">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="O57">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3787,49 +3787,49 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3454545454545455</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>20</v>
       </c>
       <c r="E58">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>36</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K58">
-        <v>0.06569343065693431</v>
+        <v>0.05459770114942529</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N58">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O58">
-        <v>0.4399999999999999</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>256</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3837,13 +3837,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3260869565217391</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3855,31 +3855,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K59">
-        <v>0.06451612903225806</v>
+        <v>0.05459770114942529</v>
       </c>
       <c r="L59">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="O59">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>464</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3887,13 +3887,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3247863247863248</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C60">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3905,31 +3905,31 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K60">
-        <v>0.04913294797687862</v>
+        <v>0.05040322580645161</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N60">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="O60">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>329</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3937,13 +3937,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3243243243243243</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3955,31 +3955,31 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="K61">
-        <v>0.04245283018867924</v>
+        <v>0.04973821989528796</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N61">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="O61">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>406</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3987,49 +3987,49 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3163265306122449</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="C62">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K62">
-        <v>0.03547671840354767</v>
+        <v>0.04086538461538462</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N62">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="O62">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>435</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4037,13 +4037,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3134328358208955</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4055,31 +4055,31 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K63">
-        <v>0.02888583218707015</v>
+        <v>0.03794642857142857</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="N63">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="O63">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>706</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4087,13 +4087,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.3035714285714285</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4105,71 +4105,95 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K64">
-        <v>0.02232142857142857</v>
+        <v>0.03631284916201118</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M64">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N64">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="O64">
-        <v>0.5700000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.3005181347150259</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C65">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E65">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K65">
+        <v>0.03422619047619048</v>
+      </c>
+      <c r="L65">
+        <v>23</v>
+      </c>
+      <c r="M65">
+        <v>43</v>
+      </c>
+      <c r="N65">
+        <v>0.53</v>
+      </c>
+      <c r="O65">
+        <v>0.47</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2989690721649484</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="C66">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4181,47 +4205,47 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2784810126582278</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C67">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2753623188405797</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4233,21 +4257,21 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2747252747252747</v>
+        <v>0.285</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D69">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4259,47 +4283,47 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2702702702702703</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C70">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E70">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F70">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2678571428571428</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4311,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -4340,18 +4364,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.26</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C73">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D73">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4363,21 +4387,21 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2577319587628866</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C74">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4389,36 +4413,36 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2554744525547445</v>
+        <v>0.2523364485981308</v>
       </c>
       <c r="C75">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D75">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F75">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -4426,10 +4450,10 @@
         <v>0.25</v>
       </c>
       <c r="C76">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D76">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4441,73 +4465,73 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2457627118644068</v>
+        <v>0.2492537313432836</v>
       </c>
       <c r="C77">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="D77">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2432835820895522</v>
+        <v>0.2412698412698413</v>
       </c>
       <c r="C78">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="D78">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="E78">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F78">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2432432432432433</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D79">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4519,21 +4543,21 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2428571428571429</v>
+        <v>0.24</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4545,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4553,25 +4577,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2427745664739884</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C81">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D81">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E81">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>262</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4579,13 +4603,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2356687898089172</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C82">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D82">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4597,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>120</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4605,13 +4629,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.2318840579710145</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4623,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4631,25 +4655,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.2244444444444444</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C84">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E84">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>349</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4657,25 +4681,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2206572769953052</v>
+        <v>0.2289719626168224</v>
       </c>
       <c r="C85">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D85">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E85">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4683,25 +4707,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.2183544303797468</v>
+        <v>0.2254545454545455</v>
       </c>
       <c r="C86">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D86">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4709,25 +4733,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.2162162162162162</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="C87">
         <v>16</v>
       </c>
       <c r="D87">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E87">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4735,25 +4759,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.2157894736842105</v>
+        <v>0.2243589743589744</v>
       </c>
       <c r="C88">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D88">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E88">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F88">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4761,25 +4785,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2149532710280374</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E89">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4787,25 +4811,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2126436781609195</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="C90">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D90">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E90">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F90">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4813,25 +4837,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2076923076923077</v>
+        <v>0.2123893805309734</v>
       </c>
       <c r="C91">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D91">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>103</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4839,7 +4863,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2051282051282051</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="C92">
         <v>16</v>
@@ -4857,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4865,25 +4889,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2027027027027027</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4891,25 +4915,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1975308641975309</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D94">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E94">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F94">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>65</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4917,25 +4941,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1904761904761905</v>
+        <v>0.185792349726776</v>
       </c>
       <c r="C95">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D95">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E95">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4943,13 +4967,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1822916666666667</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="C96">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D96">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4961,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4969,25 +4993,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1808510638297872</v>
+        <v>0.17</v>
       </c>
       <c r="C97">
         <v>17</v>
       </c>
       <c r="D97">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4995,13 +5019,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1795918367346939</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="C98">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D98">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>0.06</v>
@@ -5013,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>201</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5021,25 +5045,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1788617886178862</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="C99">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5047,25 +5071,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1693989071038251</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="C100">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D100">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>152</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5073,13 +5097,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1688311688311688</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C101">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D101">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5091,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5099,25 +5123,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1685823754789272</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C102">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D102">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E102">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="F102">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>217</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5125,25 +5149,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1684782608695652</v>
+        <v>0.1544117647058824</v>
       </c>
       <c r="C103">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D103">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E103">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="F103">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>153</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5151,25 +5175,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.15</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="C104">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D104">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E104">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="F104">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5177,25 +5201,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1460055096418733</v>
+        <v>0.1456043956043956</v>
       </c>
       <c r="C105">
         <v>53</v>
       </c>
       <c r="D105">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E105">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F105">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5203,25 +5227,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1384615384615385</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="C106">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D106">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E106">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="F106">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>112</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5229,25 +5253,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1375</v>
+        <v>0.1396011396011396</v>
       </c>
       <c r="C107">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D107">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E107">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F107">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>138</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5255,25 +5279,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1343283582089552</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C108">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D108">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E108">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F108">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5281,25 +5305,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1278409090909091</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="C109">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D109">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E109">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="F109">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>307</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5307,25 +5331,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1235955056179775</v>
+        <v>0.1346938775510204</v>
       </c>
       <c r="C110">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D110">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E110">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F110">
-        <v>0.9299999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>390</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5333,25 +5357,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1225806451612903</v>
+        <v>0.1247058823529412</v>
       </c>
       <c r="C111">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D111">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E111">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F111">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>136</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5359,25 +5383,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1204188481675393</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="C112">
         <v>23</v>
       </c>
       <c r="D112">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F112">
-        <v>0.8200000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5385,25 +5409,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.119047619047619</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="C113">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D113">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E113">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F113">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5411,25 +5435,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1169590643274854</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C114">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D114">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E114">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F114">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5437,25 +5461,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1164725457570715</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="C115">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D115">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E115">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>531</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5463,25 +5487,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1156462585034014</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="C116">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D116">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E116">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5489,25 +5513,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.1142857142857143</v>
+        <v>0.1145510835913313</v>
       </c>
       <c r="C117">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D117">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E117">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="F117">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>279</v>
+        <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5515,25 +5539,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1104651162790698</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="C118">
         <v>19</v>
       </c>
       <c r="D118">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E118">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F118">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5541,25 +5565,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1092636579572447</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="C119">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D119">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="F119">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>375</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5567,25 +5591,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1021897810218978</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C120">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D120">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E120">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="F120">
-        <v>0.8200000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>246</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5593,25 +5617,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.09444444444444444</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C121">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D121">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E121">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="F121">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>163</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5619,25 +5643,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.09302325581395349</v>
+        <v>0.1054545454545455</v>
       </c>
       <c r="C122">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D122">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E122">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="F122">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>156</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5645,25 +5669,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08962264150943396</v>
+        <v>0.1015625</v>
       </c>
       <c r="C123">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D123">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="E123">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="F123">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>386</v>
+        <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5671,25 +5695,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.08695652173913043</v>
+        <v>0.09932659932659933</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D124">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E124">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="F124">
-        <v>0.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>168</v>
+        <v>535</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5697,25 +5721,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.08670520231213873</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="C125">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D125">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E125">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="F125">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>316</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5723,25 +5747,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.08667529107373868</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="C126">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D126">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E126">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="F126">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>706</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5749,25 +5773,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.07870370370370371</v>
+        <v>0.07209302325581396</v>
       </c>
       <c r="C127">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D127">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E127">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="F127">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>597</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5775,25 +5799,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.06986899563318777</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C128">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E128">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="F128">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>213</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5801,25 +5825,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.05410821643286573</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C129">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D129">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E129">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="F129">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>472</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5827,25 +5851,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.05387205387205387</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="C130">
         <v>16</v>
       </c>
       <c r="D130">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E130">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
       <c r="F130">
-        <v>0.8</v>
+        <v>0.47</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5853,25 +5877,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.05361305361305362</v>
+        <v>0.05811623246492986</v>
       </c>
       <c r="C131">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D131">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E131">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
       <c r="F131">
-        <v>0.5600000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>406</v>
+        <v>470</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5879,25 +5903,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.04945054945054945</v>
+        <v>0.04646017699115045</v>
       </c>
       <c r="C132">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D132">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E132">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="F132">
-        <v>0.36</v>
+        <v>0.55</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>346</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5905,51 +5929,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.03973509933774835</v>
+        <v>0.02989536621823617</v>
       </c>
       <c r="C133">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D133">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E133">
+        <v>0.53</v>
+      </c>
+      <c r="F133">
         <v>0.47</v>
       </c>
-      <c r="F133">
-        <v>0.53</v>
-      </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B134">
-        <v>0.02954209748892171</v>
-      </c>
-      <c r="C134">
-        <v>20</v>
-      </c>
-      <c r="D134">
-        <v>35</v>
-      </c>
-      <c r="E134">
-        <v>0.43</v>
-      </c>
-      <c r="F134">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
